--- a/cnb/270/sentistrength-manual/stopword-stemming/sentimen_stopword-stemming_terpisah.xlsx
+++ b/cnb/270/sentistrength-manual/stopword-stemming/sentimen_stopword-stemming_terpisah.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="sentimen_stopword-stemming_terp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="334">
   <si>
     <t>kecewa banget pesan free pouch kirim cotton pad kaget pas unboxing untung video segera kabarin customer servicenya suruh isi googleform kirim ulang pouchnya hari enggak kabar akhir tanya kabar kalau stock pouch nyata habis padahal baik baik sabar ikut prosedur customer service pikir positif nyata begini cara</t>
   </si>
@@ -1003,6 +1003,24 @@
   </si>
   <si>
     <t>58,49%</t>
+  </si>
+  <si>
+    <t>Precision avg</t>
+  </si>
+  <si>
+    <t>49,82</t>
+  </si>
+  <si>
+    <t>Recall avg</t>
+  </si>
+  <si>
+    <t>47,53</t>
+  </si>
+  <si>
+    <t>F1 Score avg</t>
+  </si>
+  <si>
+    <t>46,1</t>
   </si>
 </sst>
 </file>
@@ -1624,10 +1642,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1639,13 +1674,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1654,16 +1682,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1988,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2076,13 +2094,13 @@
         <f>CHOOSE(MATCH(C4 &amp; D4, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2101,15 +2119,15 @@
         <f>CHOOSE(MATCH(C5 &amp; D5, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2130,19 +2148,19 @@
         <f>CHOOSE(MATCH(C6 &amp; D6, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2163,17 +2181,17 @@
         <f>CHOOSE(MATCH(C7 &amp; D7, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2194,17 +2212,17 @@
         <f>CHOOSE(MATCH(C8 &amp; D8, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2279,13 +2297,13 @@
         <f>CHOOSE(MATCH(C12 &amp; D12, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2304,15 +2322,15 @@
         <f>CHOOSE(MATCH(C13 &amp; D13, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2333,21 +2351,21 @@
         <f>CHOOSE(MATCH(C14 &amp; D14, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <f>COUNTIF(E2:E248, "T Neg") + COUNTIF(E2:E248, "T Neg ")</f>
         <v>29</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="2">
         <f>COUNTIF(E2:E248, "F NegNet") + COUNTIF(E2:E248, "F NegNet ")</f>
         <v>21</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="2">
         <f>COUNTIF(E2:E248, "F NegPos") + COUNTIF(E2:E248, "F NegPos ")</f>
         <v>25</v>
       </c>
@@ -2369,19 +2387,19 @@
         <f>CHOOSE(MATCH(C15 &amp; D15, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="G15" s="15"/>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
         <f>COUNTIF(E2:E248, "F NetNeg") + COUNTIF(E2:E248, "F NetNeg ")</f>
         <v>12</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="2">
         <f>COUNTIF(E2:E248, "T Net ") + COUNTIF(E2:E248, "T Net")</f>
         <v>23</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="2">
         <f>COUNTIF(E2:E248, "F NetPos") + COUNTIF(E2:E248, "F NetPos ")</f>
         <v>50</v>
       </c>
@@ -2403,19 +2421,19 @@
         <f>CHOOSE(MATCH(C16 &amp; D16, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="16"/>
+      <c r="H16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2">
         <f>COUNTIF(E2:E248, "F PosNeg") + COUNTIF(E2:E248, "F PosNeg ")</f>
         <v>4</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="2">
         <f>COUNTIF(E2:E248, "F PosNet") + COUNTIF(E2:E248, "F PosNet ")</f>
         <v>16</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="2">
         <f>COUNTIF(E2:E248, "T Pos") + COUNTIF(E2:E248, "T Pos ")</f>
         <v>67</v>
       </c>
@@ -2473,7 +2491,7 @@
         <f>CHOOSE(MATCH(C19 &amp; D19, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NetPos</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="3" t="s">
         <v>260</v>
       </c>
       <c r="H19" t="s">
@@ -2560,7 +2578,7 @@
         <f>CHOOSE(MATCH(C23 &amp; D23, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="4" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2599,7 +2617,7 @@
         <f>CHOOSE(MATCH(C25 &amp; D25, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2620,13 +2638,13 @@
         <f>CHOOSE(MATCH(C26 &amp; D26, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2647,13 +2665,13 @@
         <f>CHOOSE(MATCH(C27 &amp; D27, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NetPos</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -2674,13 +2692,13 @@
         <f>CHOOSE(MATCH(C28 &amp; D28, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -2719,7 +2737,7 @@
         <f>CHOOSE(MATCH(C30 &amp; D30, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2740,13 +2758,13 @@
         <f>CHOOSE(MATCH(C31 &amp; D31, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2767,13 +2785,13 @@
         <f>CHOOSE(MATCH(C32 &amp; D32, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2794,13 +2812,13 @@
         <f>CHOOSE(MATCH(C33 &amp; D33, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2839,7 +2857,7 @@
         <f>CHOOSE(MATCH(C35 &amp; D35, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2860,13 +2878,13 @@
         <f>CHOOSE(MATCH(C36 &amp; D36, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegPos</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="H36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2887,13 +2905,13 @@
         <f>CHOOSE(MATCH(C37 &amp; D37, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2914,13 +2932,13 @@
         <f>CHOOSE(MATCH(C38 &amp; D38, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2959,7 +2977,7 @@
         <f>CHOOSE(MATCH(C40 &amp; D40, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2980,19 +2998,19 @@
         <f>CHOOSE(MATCH(C41 &amp; D41, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3013,19 +3031,19 @@
         <f>CHOOSE(MATCH(C42 &amp; D42, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="G42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
         <v>29</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="5">
         <v>16</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="5">
         <v>46</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -3044,19 +3062,19 @@
         <f>CHOOSE(MATCH(C43 &amp; D43, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="15">
+      <c r="G43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="5">
         <v>23</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="5">
         <v>37</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="5">
         <v>62</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
@@ -3075,19 +3093,19 @@
         <f>CHOOSE(MATCH(C44 &amp; D44, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Net</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15">
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="5">
         <v>67</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="5">
         <v>75</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="5">
         <v>20</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
@@ -3142,14 +3160,17 @@
         <f>CHOOSE(MATCH(C47 &amp; D47, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="3" t="s">
         <v>275</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3179,7 +3200,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3233,7 +3254,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3250,17 +3271,20 @@
         <f>CHOOSE(MATCH(C51 &amp; D51, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="4">
         <v>0.64</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="I51" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3278,7 +3302,7 @@
         <v>F NetNeg</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3295,17 +3319,20 @@
         <f>CHOOSE(MATCH(C53 &amp; D53, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegPos</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3332,7 +3359,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3359,7 +3386,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3386,7 +3413,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3403,17 +3430,20 @@
         <f>CHOOSE(MATCH(C57 &amp; D57, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="4">
         <v>0.27</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3431,7 +3461,7 @@
         <v>F NegPos</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3448,11 +3478,14 @@
         <f>CHOOSE(MATCH(C59 &amp; D59, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Neg</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3473,7 +3506,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3515,7 +3548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3536,7 +3569,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3557,7 +3590,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3574,11 +3607,14 @@
         <f>CHOOSE(MATCH(C65 &amp; D65, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NetPos</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3596,7 +3632,7 @@
         <v>T Net</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3613,11 +3649,11 @@
         <f>CHOOSE(MATCH(C67 &amp; D67, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F PosNet</v>
       </c>
-      <c r="G67" s="13" t="s">
+      <c r="G67" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3638,7 +3674,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3659,7 +3695,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3680,7 +3716,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3701,7 +3737,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3722,7 +3758,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3743,7 +3779,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3761,7 +3797,7 @@
         <v>T Pos</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3778,11 +3814,11 @@
         <f>CHOOSE(MATCH(C75 &amp; D75, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>T Pos</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3803,7 +3839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3824,7 +3860,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3845,7 +3881,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3866,7 +3902,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3904,7 +3940,7 @@
         <f>CHOOSE(MATCH(C81 &amp; D81, {"Negatifpositif","Negatifnetral","Negatifnegatif","Netralnegatif","Netralnetral","Netralpositif","Positifnegatif","Positifnetral","Positifpositif"}, 0), "F NegPos", "F NegNet", "T Neg", "F NetNeg", "T Net", "F NetPos", "F PosNeg", "F PosNet", "T Pos")</f>
         <v>F NegNet</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6916,13 +6952,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="G4:H5"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>